--- a/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem3/word_level_predictions.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem3/word_level_predictions.xlsx
@@ -501,12 +501,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+          <t>Compass Error Compass Error Compass disconnected .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Compass</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -553,12 +553,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+          <t>Compass Error Compass Error Compass disconnected .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -605,12 +605,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+          <t>Compass Error Compass Error Compass disconnected .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>battery</t>
+          <t>Compass</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -618,7 +618,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+          <t>Compass Error Compass Error Compass disconnected .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -709,12 +709,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+          <t>Compass Error Compass Error Compass disconnected .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>Compass</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -722,7 +722,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+          <t>Compass Error Compass Error Compass disconnected .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>disconnected</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -774,12 +774,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -813,12 +813,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+          <t>Compass Error Compass Error Compass disconnected .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -826,28 +826,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K8" t="b">
@@ -861,29 +861,29 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -913,7 +913,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -922,15 +922,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -959,13 +959,13 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -974,15 +974,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Forced</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1011,13 +1011,13 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1026,15 +1026,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>landing</t>
+          <t>Aircraft</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1063,13 +1063,13 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1130,20 +1130,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1173,7 +1173,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1182,36 +1182,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K15" t="b">
@@ -1229,25 +1229,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected .</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Compass</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1281,16 +1281,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected .</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Protection</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1333,16 +1333,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected .</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Compass</t>
+          <t>Forced</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1385,20 +1385,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected .</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>landing</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1437,20 +1437,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected .</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Compass</t>
+          <t>in</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1489,16 +1489,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected .</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>disconnected</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected .</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
